--- a/data/income_statement/2digits/total/93_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/93_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>93-Sports activities and amusement and recreation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>93-Sports activities and amusement and recreation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>868722.27963</v>
@@ -956,76 +862,86 @@
         <v>870911.9450900001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1139674.65852</v>
+        <v>1139763.69371</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1467595.92487</v>
+        <v>1467918.03531</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1799294.67581</v>
+        <v>1800078.4621</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2176627.35849</v>
+        <v>2189178.40767</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2477988.93389</v>
+        <v>2518578.942</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2700907.55203</v>
+        <v>2825618.68345</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3513425.954210001</v>
+        <v>3513425.95421</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4367887.20488</v>
+        <v>4392860.26635</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5029073.787140001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5071826.366780001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4098359.081</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>819170.1756999999</v>
+        <v>819170.1757</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>825434.02501</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1071530.31161</v>
+        <v>1071619.3468</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1387181.14857</v>
+        <v>1387487.54854</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1676519.45803</v>
+        <v>1677298.92186</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2086442.45064</v>
+        <v>2098980.99921</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2363785.14343</v>
+        <v>2397972.63225</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2517447.57193</v>
+        <v>2636286.17831</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3279835.826679999</v>
+        <v>3279835.82668</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4113723.949899999</v>
+        <v>4136320.58171</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4758898.423299999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4792959.92871</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3737404.381</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>27480.16115</v>
@@ -1037,34 +953,39 @@
         <v>26197.93761</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>37838.11166999999</v>
+        <v>37853.82214</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>66810.88154999999</v>
+        <v>66810.88155000001</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>32558.34074</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>36129.72536</v>
+        <v>36175.10349</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>62416.78380000001</v>
+        <v>62416.7838</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>121671.56544</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>110379.39305</v>
+        <v>112561.16893</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>102862.51734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>110742.05789</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>77865.182</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>22071.94278</v>
@@ -1076,34 +997,39 @@
         <v>41946.4093</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>42576.66462999999</v>
+        <v>42576.66463</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>55964.33622999999</v>
+        <v>55968.65869</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>57626.56711</v>
+        <v>57639.06772000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>78074.06509999999</v>
+        <v>84431.20626000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>121043.1963</v>
+        <v>126915.72134</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>111918.56209</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>143783.86193</v>
+        <v>143978.51571</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>167312.8465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>168124.38018</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>283089.518</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>3545.97354</v>
@@ -1121,28 +1047,33 @@
         <v>7087.99836</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>14173.88446</v>
+        <v>14179.59087</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>20483.68924</v>
+        <v>20517.31939</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>32051.83371</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>37264.95448</v>
+        <v>37264.95448000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>77396.15233000001</v>
+        <v>77404.17518000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>97524.99473000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>97624.05406000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>136628.847</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>3324.0846</v>
@@ -1160,28 +1091,33 @@
         <v>5448.54278</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>12045.30636</v>
+        <v>12051.01277</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>17430.63495</v>
+        <v>17464.2651</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>26206.72012999999</v>
+        <v>26206.72013</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>24047.61324</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>61035.66062</v>
+        <v>61043.68347</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>76126.5934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>76112.40066</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>103111.405</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>220.6269</v>
@@ -1190,7 +1126,7 @@
         <v>318.71537</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>692.3975599999999</v>
+        <v>692.3975600000001</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>585.14273</v>
@@ -1214,13 +1150,18 @@
         <v>15575.22746</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>21307.80883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21421.0609</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>32455.566</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1.26204</v>
@@ -1235,16 +1176,16 @@
         <v>16.27544</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>326.41064</v>
+        <v>326.4106399999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>368.0609499999999</v>
+        <v>368.06095</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>229.2019199999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>83.59540999999999</v>
+        <v>83.59541</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>229.89626</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>90.5925</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1061.876</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>865176.3060900001</v>
+        <v>865176.30609</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>867234.4931999999</v>
+        <v>867234.4932</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1134337.86299</v>
+        <v>1134426.89818</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1461510.20669</v>
+        <v>1461832.31713</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1792206.67745</v>
+        <v>1792990.46374</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2162453.47403</v>
+        <v>2174998.8168</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2457505.24465</v>
+        <v>2498061.622609999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2668855.71832</v>
+        <v>2793566.84974</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3476160.99973</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4290491.05255</v>
+        <v>4315456.09117</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4931548.79241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4974202.312719999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3961730.234</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>660349.4170799999</v>
@@ -1307,37 +1258,42 @@
         <v>662382.18588</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>745433.19759</v>
+        <v>745514.1386700001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>960361.69789</v>
+        <v>960565.79959</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1222492.78255</v>
+        <v>1223116.46122</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1412528.70868</v>
+        <v>1425733.29109</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1689199.32599</v>
+        <v>1714620.47039</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1958589.81333</v>
+        <v>1958655.89445</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2426657.26233</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3062687.65881</v>
+        <v>3084611.36597</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3732142.99046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3757180.32176</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3157453.406</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>23180.64055</v>
@@ -1352,31 +1308,36 @@
         <v>30314.19979</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>43591.10792</v>
+        <v>43591.10791999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>56144.3965</v>
+        <v>56156.16122</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>53091.67416</v>
+        <v>53555.06206</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>76310.80644999999</v>
+        <v>76310.80645</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>71413.80606</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>115819.99176</v>
+        <v>115889.33166</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>139961.91774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>140884.25548</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>164647.016</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>185446.9572</v>
@@ -1385,76 +1346,86 @@
         <v>81043.89187000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>91461.35854</v>
+        <v>91542.29962000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>123417.20951</v>
+        <v>123419.0983</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>169907.17973</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>190577.56678</v>
+        <v>190950.98424</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>247308.54657</v>
+        <v>261469.68268</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>313732.32462</v>
+        <v>313895.32562</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>409396.66988</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>400140.24512</v>
+        <v>400836.57406</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>405674.10441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>409624.1932400001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>440318.122</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>450834.1143099999</v>
+        <v>450834.11431</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>550507.72191</v>
+        <v>550507.7219100001</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>631640.42866</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>803406.44364</v>
+        <v>803608.65655</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1004448.43889</v>
+        <v>1005072.11756</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1162100.95173</v>
+        <v>1174920.35196</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1380345.37304</v>
+        <v>1391134.49343</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1559031.77314</v>
+        <v>1558934.85326</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1938454.15426</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2523417.06098</v>
+        <v>2544423.64395</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3174698.10165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3194338.57359</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2533242.76</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>887.70502</v>
@@ -1463,7 +1434,7 @@
         <v>1724.05571</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2254.922750000001</v>
+        <v>2254.92275</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>3223.84495</v>
@@ -1475,25 +1446,30 @@
         <v>3705.79367</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>8453.732219999998</v>
+        <v>8461.232219999998</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9514.909119999998</v>
+        <v>9514.90912</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7392.63213</v>
+        <v>7392.632130000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>23310.36095</v>
+        <v>23461.8163</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>11808.86666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12333.29945</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>19245.508</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>204826.88901</v>
@@ -1502,76 +1478,86 @@
         <v>204852.30732</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>388904.6654</v>
+        <v>388912.75951</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>501148.5088</v>
+        <v>501266.51754</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>569713.8949</v>
+        <v>569874.00252</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>749924.76535</v>
+        <v>749265.5257100001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>768305.91866</v>
+        <v>783441.15222</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>710265.90499</v>
+        <v>834910.9552900001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1049503.7374</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1227803.39374</v>
+        <v>1230844.7252</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1199405.80195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1217021.99096</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>804276.828</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>319582.85568</v>
+        <v>319582.8556799999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>355211.9527</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>468398.93945</v>
+        <v>468399.0449</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>610907.2521700001</v>
+        <v>610927.28096</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>751969.75237</v>
+        <v>752051.74174</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>871267.2147199999</v>
+        <v>872046.62573</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1050795.87708</v>
+        <v>1062500.61516</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>892685.3421200002</v>
+        <v>1170939.673</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1392152.8825</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1626594.40261</v>
+        <v>1629799.29885</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1459777.63167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1480606.5655</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1149290.41</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>15.68579</v>
@@ -1604,13 +1590,18 @@
         <v>354626.30448</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>15901.38806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15964.08142</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1588.851</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>21350.33414</v>
@@ -1625,31 +1616,36 @@
         <v>42238.18165</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>53705.18435</v>
+        <v>53705.49909999999</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>57205.88251</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>61873.73909</v>
+        <v>61972.95425</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>89394.98614000002</v>
+        <v>89395.26169999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>89437.14210999999</v>
+        <v>89437.14211</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>110238.40165</v>
+        <v>110300.13981</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>116749.72316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>117478.25337</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>87790.59299999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>298216.83575</v>
@@ -1658,37 +1654,42 @@
         <v>332132.95502</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>443578.15271</v>
+        <v>443578.25816</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>568465.03413</v>
+        <v>568485.0629200001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>697500.0792</v>
+        <v>697581.7538200001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>813903.4302000001</v>
+        <v>814682.84121</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>988840.8865599999</v>
+        <v>1000446.40948</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>802988.28481</v>
+        <v>1081242.34013</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1070414.3746</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1161729.69648</v>
+        <v>1164872.85456</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1327126.52045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1347164.23071</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1059910.966</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-114755.96667</v>
@@ -1697,37 +1698,42 @@
         <v>-150359.64538</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-79494.27404999999</v>
+        <v>-79486.28539</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-109758.74337</v>
+        <v>-109660.76342</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-182255.85747</v>
+        <v>-182177.73922</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-121342.44937</v>
+        <v>-122781.10002</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-282489.9584200001</v>
+        <v>-279059.4629400001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-182419.43713</v>
+        <v>-336028.71771</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-342649.1451</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-398791.00887</v>
+        <v>-398954.57365</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-260371.82972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-263584.57454</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-345013.582</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>187359.89891</v>
@@ -1739,34 +1745,39 @@
         <v>146190.90112</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>167985.06323</v>
+        <v>167985.55287</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>194575.2432</v>
+        <v>194577.61981</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>166861.11404</v>
+        <v>166878.55216</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>205602.61981</v>
+        <v>208495.36983</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>259820.33235</v>
+        <v>295086.7308500001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>435056.05996</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1068916.19251</v>
+        <v>1070309.09121</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>749719.42015</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>750120.64553</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>908294.291</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2690.06843</v>
@@ -1781,19 +1792,19 @@
         <v>4512.702729999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>8130.24514</v>
+        <v>8130.245140000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5740.8546</v>
+        <v>5740.854600000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6458.264369999999</v>
+        <v>6458.26437</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>7679.523440000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6421.387050000001</v>
+        <v>6421.387049999999</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>4240.79067</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>9158.414050000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>13732.782</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1010.47708</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>10680.77001</v>
@@ -1865,10 +1886,10 @@
         <v>27727.22548</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>27474.94759</v>
+        <v>27991.20713</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>29533.55608</v>
+        <v>32188.16094</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>49007.39665</v>
@@ -1877,28 +1898,33 @@
         <v>78970.37861</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>126803.07346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>126862.93618</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>188573.312</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>146.83069</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>817.19728</v>
+        <v>817.1972799999999</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>363.3926499999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>894.8171500000001</v>
+        <v>894.81715</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>591.8354600000001</v>
+        <v>591.83546</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>2293.36711</v>
@@ -1916,13 +1942,18 @@
         <v>44552.95529000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>65447.98633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>65450.22836999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>711.734</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>30859.04368</v>
@@ -1937,7 +1968,7 @@
         <v>30975.60096</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>886.57944</v>
+        <v>886.5794400000001</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>3162.17496</v>
@@ -1946,7 +1977,7 @@
         <v>3612.17802</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3499.06015</v>
+        <v>3773.39792</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>10497.27622</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>9800.988589999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>12909.64</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>247.0284</v>
@@ -1970,7 +2006,7 @@
         <v>450.93803</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>8106.97945</v>
+        <v>8106.979449999999</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>3331.38056</v>
@@ -1985,10 +2021,10 @@
         <v>7848.18824</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5076.38448</v>
+        <v>5076.384480000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>41080.52929000001</v>
+        <v>41080.52929</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>21629.36678</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>13924.30925</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>46083.491</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>92434.32015</v>
+        <v>92434.32015000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>56123.56894</v>
@@ -2012,34 +2053,39 @@
         <v>26172.09967</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>63093.99335</v>
+        <v>63093.99335000001</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>71623.73931</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>67710.75854</v>
+        <v>67721.04441</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>90761.86755999998</v>
+        <v>92295.09448999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>107766.19613</v>
+        <v>138885.1274</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>209751.17253</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>721355.37945</v>
+        <v>722747.6071899999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>340277.88581</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>340848.66503</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>469159.376</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>138.22685</v>
@@ -2063,7 +2109,7 @@
         <v>613.4753499999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>214.56129</v>
+        <v>285.48566</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>206.732</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2185.17847</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1383.777</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.88753</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>235.66522</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>49148.24609</v>
+        <v>49148.24608999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>60599.15920999999</v>
+        <v>60599.15921</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>47251.35148</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>46282.66684000001</v>
+        <v>46283.15648000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>40923.02254</v>
+        <v>40925.39915</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>44229.62901999999</v>
+        <v>44236.78126999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>67154.17809999999</v>
+        <v>67997.44165000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>90903.21642999999</v>
+        <v>92050.81666</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>87042.38149000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>188405.59929</v>
+        <v>188406.27025</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>181885.91897</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>181654.26037</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>175740.179</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>56905.70621</v>
@@ -2174,28 +2235,33 @@
         <v>115922.96126</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>103039.84611</v>
+        <v>103140.81145</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>169552.75918</v>
+        <v>170343.76286</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>143296.64554</v>
+        <v>204292.46907</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>325414.2065</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>908196.69527</v>
+        <v>908317.9334100001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>382314.5957000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>382914.19186</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>468164.916</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2446.45222</v>
@@ -2204,7 +2270,7 @@
         <v>1451.15664</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>891.3887500000001</v>
+        <v>891.3887499999998</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>1778.34936</v>
@@ -2225,16 +2291,21 @@
         <v>3671.43786</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5184.60218</v>
+        <v>5184.631179999999</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>9454.78248</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>6680.036</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1521.07169</v>
@@ -2252,31 +2323,36 @@
         <v>4099.93721</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8890.488329999998</v>
+        <v>8890.48833</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7576.05861</v>
+        <v>7576.058609999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>10491.34229</v>
+        <v>17036.44863</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>24648.13109</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>44553.38143</v>
+        <v>44553.38142999999</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>33352.33731</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>20066.536</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>35.25850999999999</v>
+        <v>35.25851</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>20.00596</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>13.22305</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>435.531</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>39908.32575</v>
@@ -2330,28 +2411,33 @@
         <v>102729.2612</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>75978.65956999999</v>
+        <v>75982.41699000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>120989.58452</v>
+        <v>121657.43203</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>117138.38215</v>
+        <v>166087.35292</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>267351.20115</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>826866.28746</v>
+        <v>826952.5775899999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>289928.61801</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>290528.03708</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>414843.038</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>65.2646</v>
@@ -2375,7 +2461,7 @@
         <v>56.08314</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>366.82354</v>
+        <v>418.21796</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>305.51534</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>2165.09612</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>492.669</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>7.179900000000001</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>12922.15354</v>
@@ -2447,112 +2543,127 @@
         <v>6719.59917</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>16793.99077</v>
+        <v>16891.19869</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>37004.7859</v>
+        <v>37127.94207</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6414.973539999999</v>
+        <v>11865.32554</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>28620.88455</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>29075.98047</v>
+        <v>29110.89948</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>47400.53873</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>47400.71581999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>25647.106</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>101515.99763</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>77881.61176999999</v>
+        <v>77881.61177000002</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>117848.97239</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>68829.19809999999</v>
+        <v>68963.04689</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>158243.65134</v>
+        <v>158364.38335</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>140745.41677</v>
+        <v>140997.53228</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>219559.34312</v>
+        <v>219948.07502</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>228386.89834</v>
+        <v>266109.76265</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>283105.82574</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>612088.8537699999</v>
+        <v>612106.7743299999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>627180.7688399999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>627375.3797</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>640592.231</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>51306.75466</v>
+        <v>51306.75466000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>32531.49358</v>
+        <v>32531.49358000001</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>52519.73415</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>59894.62829</v>
+        <v>60028.47708</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>92211.95621</v>
+        <v>92332.68822</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>100815.64199</v>
+        <v>101067.7575</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>119080.931</v>
+        <v>119469.6629</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>126155.97636</v>
+        <v>163878.84067</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>238764.58364</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>373957.08528</v>
+        <v>373975.00584</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>440235.37746</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>440429.98832</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>425647.566</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>50209.24297</v>
+        <v>50209.24297000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>45350.11819</v>
+        <v>45350.11819000001</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>65329.23823999999</v>
@@ -2561,10 +2672,10 @@
         <v>8934.569810000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>66031.69513000001</v>
+        <v>66031.69512999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>39929.77478000001</v>
+        <v>39929.77478</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>100478.41212</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>186945.39138</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>214944.665</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-85817.77159999999</v>
@@ -2594,37 +2710,42 @@
         <v>-112402.85182</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-104537.52304</v>
+        <v>-104529.53438</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-81233.47804</v>
+        <v>-81268.85724</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-261847.22687</v>
+        <v>-261887.46402</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-198266.59821</v>
+        <v>-200040.89159</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-465999.4409099999</v>
+        <v>-460855.93099</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-294282.64866</v>
+        <v>-511344.21858</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-516113.11738</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-850160.3654</v>
+        <v>-849070.1901799999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-520147.77411</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-523753.5005699999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-545476.438</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>70572.11614</v>
@@ -2633,37 +2754,42 @@
         <v>33366.87828</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>40042.52044</v>
+        <v>40042.52929000001</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>47981.47783</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>43457.78691</v>
+        <v>43459.98228</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>49129.03046</v>
+        <v>49173.86368</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>154301.33391</v>
+        <v>154914.32266</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>209292.22244</v>
+        <v>304517.52825</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>91033.621</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>109574.36449</v>
+        <v>109601.03121</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1711525.70832</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1712061.52204</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>87349.111</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>42786.33798</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2913.94875</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>849.807</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>27785.77816</v>
@@ -2711,37 +2842,42 @@
         <v>32764.92697</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>39832.82945</v>
+        <v>39832.8383</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>47379.50762</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>43070.38851999999</v>
+        <v>43072.58389</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>49035.51543</v>
+        <v>49080.34865000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>148650.66446</v>
+        <v>149263.65321</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>208980.8871</v>
+        <v>304206.19291</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>90209.20854000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>108867.70283</v>
+        <v>108894.36955</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1708611.75957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1709147.57329</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>86499.304</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>72790.23136000001</v>
@@ -2750,37 +2886,42 @@
         <v>20945.76396</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>58984.47053</v>
+        <v>59006.57851</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>28904.10094</v>
+        <v>28918.17845</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>26643.72234</v>
+        <v>26668.89715</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>73035.80840000001</v>
+        <v>73073.86222999998</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>56479.30409999999</v>
+        <v>56639.25881</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>81882.50719</v>
+        <v>113445.04932</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>114790.05716</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>91706.71907999998</v>
+        <v>95265.16590000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>76843.08867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>77237.95081000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>75761.648</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>668.03521</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1197.4127</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1885.32</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>58624.36087999999</v>
@@ -2837,28 +2983,33 @@
         <v>2686.83748</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5520.104579999999</v>
+        <v>5520.10458</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>5613.174230000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5151.00471</v>
+        <v>5151.004709999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>8544.93773</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4936.08625</v>
+        <v>4936.27205</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>4666.31073</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1586.771</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>13497.83527</v>
@@ -2867,76 +3018,86 @@
         <v>17990.25869</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>55653.67482</v>
+        <v>55675.78279999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>24190.80426</v>
+        <v>24204.88177</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>23818.56732</v>
+        <v>23843.74213</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>65235.25137999999</v>
+        <v>65273.30521</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>50258.73957</v>
+        <v>50418.69428</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>73561.61354999999</v>
+        <v>105124.15568</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>105568.87287</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>85954.9691</v>
+        <v>89513.23012000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>70979.36524000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>71374.22738</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>72289.557</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-88035.88682000001</v>
+        <v>-88035.88682</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>-99981.7375</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-123479.47313</v>
+        <v>-123493.5836</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-62156.10115000001</v>
+        <v>-62205.55786000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-245033.1623</v>
+        <v>-245096.37889</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-222173.37615</v>
+        <v>-223940.89014</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-368177.4111</v>
+        <v>-362580.86714</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-166872.93341</v>
+        <v>-320271.73965</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-539869.55354</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-832292.71999</v>
+        <v>-834734.32487</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1114534.84554</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1111070.07066</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-533888.975</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>10334.39661</v>
@@ -2945,7 +3106,7 @@
         <v>9684.480009999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>10145.96181</v>
+        <v>10146.41589</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>14015.72189</v>
@@ -2954,10 +3115,10 @@
         <v>15135.34427</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>24612.95206</v>
+        <v>24623.78443</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>17980.61532</v>
+        <v>18295.30698</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>17210.82598</v>
@@ -2966,16 +3127,21 @@
         <v>24882.73936</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>50709.85266</v>
+        <v>50927.99028</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>62062.10777</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>62356.54363000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>76964.196</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-98370.28343000001</v>
@@ -2984,34 +3150,37 @@
         <v>-109666.21751</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-133625.43494</v>
+        <v>-133639.99949</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-76171.82303999999</v>
+        <v>-76221.27975</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-260168.50657</v>
+        <v>-260231.72316</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-246786.32821</v>
+        <v>-248564.67457</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-386158.02642</v>
+        <v>-380876.17412</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-184083.75939</v>
+        <v>-337482.56563</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-564752.2929</v>
+        <v>-564752.2929000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-883002.57265</v>
+        <v>-885662.3151499999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1052472.73777</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1048713.52703</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-610853.171</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1920</v>
@@ -3041,31 +3213,34 @@
         <v>2148</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2452</v>
+        <v>2459</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2649</v>
+        <v>2661</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2756</v>
+        <v>2785</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3106</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3230</v>
+        <v>3337</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3669</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>